--- a/ResultadoEleicoesDistritos/PORTO_MAIA.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_MAIA.xlsx
@@ -597,64 +597,64 @@
         <v>35121</v>
       </c>
       <c r="H2" t="n">
-        <v>1298</v>
+        <v>1346</v>
       </c>
       <c r="I2" t="n">
-        <v>3525</v>
+        <v>3507</v>
       </c>
       <c r="J2" t="n">
-        <v>14485</v>
+        <v>14564</v>
       </c>
       <c r="K2" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="L2" t="n">
-        <v>4044</v>
+        <v>4061</v>
       </c>
       <c r="M2" t="n">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="N2" t="n">
-        <v>2541</v>
+        <v>2369</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="R2" t="n">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="S2" t="n">
-        <v>1552</v>
+        <v>1540</v>
       </c>
       <c r="T2" t="n">
-        <v>2566</v>
+        <v>2550</v>
       </c>
       <c r="U2" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V2" t="n">
-        <v>22317</v>
+        <v>22453</v>
       </c>
       <c r="W2" t="n">
         <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>22473</v>
+        <v>22370</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="AA2" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
